--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>590816.2938072967</v>
+        <v>588928.712290894</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>226.3585125692677</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>234.5529121680389</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>213.6113417665674</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>198.6053843988548</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>196.5726163292152</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>82.76719169125683</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>83.82466560786628</v>
       </c>
       <c r="T7" t="n">
-        <v>78.55741663186701</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>392.4214213780103</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>162.5776147681365</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.73347938315371</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>88.91569202456265</v>
       </c>
     </row>
     <row r="14">
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>122.2151751544593</v>
       </c>
       <c r="U16" t="n">
-        <v>173.9210186890173</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>15.0222892215842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>73.01852064932167</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.107731335945374</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.7161203484791</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>142.4312553669866</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>153.3071280154269</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>78.67531269947901</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>21.65873182143974</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523571</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463135</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539613</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463134</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1273.280804219765</v>
+        <v>1504.400259589023</v>
       </c>
       <c r="C2" t="n">
-        <v>1273.280804219765</v>
+        <v>1135.437742648611</v>
       </c>
       <c r="D2" t="n">
-        <v>1273.280804219765</v>
+        <v>777.1720440418605</v>
       </c>
       <c r="E2" t="n">
-        <v>1273.280804219765</v>
+        <v>777.1720440418605</v>
       </c>
       <c r="F2" t="n">
-        <v>862.2948994301576</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>444.3310913283444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>527.5174848136515</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>358.5813018857447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>358.5813018857447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W4" t="n">
-        <v>527.5174848136515</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X4" t="n">
-        <v>527.5174848136515</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.5174848136515</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1293.690638606345</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.690638606345</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="D5" t="n">
-        <v>1293.690638606345</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="E5" t="n">
-        <v>1293.690638606345</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>882.7047338167372</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>464.7409257149241</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5462057509269</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1683.829970582156</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1293.690638606345</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="T7" t="n">
-        <v>648.7780583156595</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="U7" t="n">
-        <v>359.6044479702274</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V7" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.6044479702274</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1915.737096240334</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1546.774579299922</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>1188.508880693171</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>1188.508880693171</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>777.522975903564</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>2302.336936304455</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>218.1627947174721</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>545.6648329070714</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>545.6648329070714</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.640028756737</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1244.720018672289</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1244.720018672289</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1244.720018672289</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.720018672289</v>
+        <v>955.1031435655734</v>
       </c>
       <c r="W13" t="n">
-        <v>955.3028486353285</v>
+        <v>665.6859735286127</v>
       </c>
       <c r="X13" t="n">
-        <v>727.3132977373111</v>
+        <v>665.6859735286127</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.3132977373111</v>
+        <v>575.8721432007717</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,40 +5267,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5364,13 +5364,13 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4612303381597</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102528</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102528</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102528</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="U16" t="n">
-        <v>1012.243360379707</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="V16" t="n">
-        <v>1012.243360379707</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="W16" t="n">
-        <v>1012.243360379707</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="X16" t="n">
-        <v>784.2538094816898</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.4612303381597</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.78763177146</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1194.613602254709</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>966.6240513566914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>745.8314722131613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,31 +5732,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>321.3911813763036</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>321.3911813763036</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>321.3911813763036</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>321.3911813763036</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1493.756945976139</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1269.971530765645</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>980.8428919792033</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V22" t="n">
-        <v>726.1584037733164</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W22" t="n">
-        <v>436.7412337363558</v>
+        <v>731.0291971045607</v>
       </c>
       <c r="X22" t="n">
-        <v>208.7516828383384</v>
+        <v>503.0396462065434</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.7516828383384</v>
+        <v>503.0396462065434</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903948</v>
+        <v>545.4651278373168</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903948</v>
+        <v>545.4651278373168</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903948</v>
+        <v>395.348488424981</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903948</v>
+        <v>247.435394842588</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903948</v>
+        <v>247.435394842588</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903948</v>
+        <v>247.435394842588</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6154,43 +6154,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1131.26090043126</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>876.5764122253727</v>
+        <v>955.1031435655739</v>
       </c>
       <c r="W25" t="n">
-        <v>587.1592421884121</v>
+        <v>955.1031435655739</v>
       </c>
       <c r="X25" t="n">
-        <v>359.1696912903948</v>
+        <v>727.1135926675565</v>
       </c>
       <c r="Y25" t="n">
-        <v>359.1696912903948</v>
+        <v>727.1135926675565</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,25 +6245,25 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6291,25 +6291,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102531</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
         <v>1283.483062980064</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765188</v>
+        <v>1120.27517048334</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>865.5906822774535</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>576.1735122404929</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>576.1735122404929</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>576.1735122404929</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,16 +6546,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542186</v>
+        <v>604.5641438163779</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542186</v>
+        <v>491.3888261698418</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542186</v>
+        <v>397.0330520388768</v>
       </c>
       <c r="E31" t="n">
-        <v>439.5324299542186</v>
+        <v>304.8808237378545</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>213.7517415213149</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>213.7517415213149</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>119.094598350629</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6631,7 +6631,7 @@
         <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818934</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652469</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030876</v>
+        <v>730.4517433652468</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6707,19 +6707,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y40" t="n">
         <v>772.288612901032</v>
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,22 +7397,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7427,13 +7427,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7822,13 +7822,13 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,22 +8775,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9012,16 +9012,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>87.16935584025441</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.23087302063907</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>129.6689613275321</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>99.33238590392993</v>
       </c>
       <c r="U16" t="n">
-        <v>112.3163337095601</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23716,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338612</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>271.5007091150068</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>72.40252737360957</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>192.8130786476579</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.1977080190570541</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>143.8060970315908</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>132.9302243831505</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.54247869489516</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.55725701427517</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="C2" t="n">
         <v>369468.7964389272</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389273</v>
+        <v>369468.7964389272</v>
       </c>
       <c r="E2" t="n">
-        <v>351926.1537639382</v>
+        <v>351926.1537639379</v>
       </c>
       <c r="F2" t="n">
         <v>351926.1537639381</v>
       </c>
       <c r="G2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639378</v>
       </c>
       <c r="H2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="I2" t="n">
-        <v>351926.1537639379</v>
+        <v>351926.1537639381</v>
       </c>
       <c r="J2" t="n">
         <v>351926.1537639381</v>
       </c>
       <c r="K2" t="n">
-        <v>366139.923610743</v>
+        <v>366139.9236107427</v>
       </c>
       <c r="L2" t="n">
+        <v>369468.7964389278</v>
+      </c>
+      <c r="M2" t="n">
+        <v>369468.796438928</v>
+      </c>
+      <c r="N2" t="n">
         <v>369468.7964389282</v>
       </c>
-      <c r="M2" t="n">
-        <v>369468.7964389275</v>
-      </c>
-      <c r="N2" t="n">
-        <v>369468.7964389283</v>
-      </c>
       <c r="O2" t="n">
-        <v>369468.7964389281</v>
+        <v>369468.7964389278</v>
       </c>
       <c r="P2" t="n">
-        <v>369468.7964389282</v>
+        <v>369468.7964389278</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26424,28 +26424,28 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
@@ -26454,10 +26454,10 @@
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-468991.0286255509</v>
+        <v>-468991.0286255508</v>
       </c>
       <c r="C6" t="n">
         <v>120976.8505889934</v>
       </c>
       <c r="D6" t="n">
-        <v>120976.8505889935</v>
+        <v>120976.8505889934</v>
       </c>
       <c r="E6" t="n">
-        <v>-287395.8162485453</v>
+        <v>-287493.2753745177</v>
       </c>
       <c r="F6" t="n">
-        <v>237764.2202283507</v>
+        <v>237666.7611023785</v>
       </c>
       <c r="G6" t="n">
-        <v>237764.2202283506</v>
+        <v>237666.7611023783</v>
       </c>
       <c r="H6" t="n">
-        <v>237764.2202283506</v>
+        <v>237666.7611023785</v>
       </c>
       <c r="I6" t="n">
-        <v>237764.2202283506</v>
+        <v>237666.7611023785</v>
       </c>
       <c r="J6" t="n">
-        <v>61341.00103575777</v>
+        <v>61243.54190978564</v>
       </c>
       <c r="K6" t="n">
-        <v>185009.8796766072</v>
+        <v>184991.3859386726</v>
       </c>
       <c r="L6" t="n">
-        <v>216817.3889898447</v>
+        <v>216817.3889898443</v>
       </c>
       <c r="M6" t="n">
-        <v>92359.28055687384</v>
+        <v>92359.28055687426</v>
       </c>
       <c r="N6" t="n">
-        <v>227160.2957907118</v>
+        <v>227160.2957907116</v>
       </c>
       <c r="O6" t="n">
-        <v>227160.2957907115</v>
+        <v>227160.2957907112</v>
       </c>
       <c r="P6" t="n">
-        <v>182997.6904878659</v>
+        <v>182997.6904878654</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.422095482516306e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.422095482516306e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26713,16 +26713,16 @@
         <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26768,7 +26768,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.422095482516306e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.422095482516306e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>180.5175331724437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>89.36986059631826</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>72.67053247541034</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>87.91761393773618</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>185.3577537430466</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>69.16412455360442</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>128.3208733421526</v>
       </c>
       <c r="T7" t="n">
-        <v>146.4776888262173</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>21.36274864278471</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187475</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>369.5330580813625</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36835,7 +36835,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37795,13 +37795,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
